--- a/SOMUCKE/TRICHDODIACHINH2022.xlsx
+++ b/SOMUCKE/TRICHDODIACHINH2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNHH\BOPHANKYTHUAT\SODO\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNHH\BOPHANKYTHUAT\SODO\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8535" tabRatio="758" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="8535" tabRatio="758" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Khe Sanh" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Khe Sanh'!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2921,6 +2921,9 @@
     <t>200+1683</t>
   </si>
   <si>
+    <t>Thôn Nại Cựu</t>
+  </si>
+  <si>
     <t>2278</t>
   </si>
   <si>
@@ -3072,15 +3075,12 @@
   </si>
   <si>
     <t>200+635</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3182,7 +3182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3260,6 +3260,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3541,10 +3542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G260" sqref="G260"/>
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8849,7 +8850,7 @@
         <v>25</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9047,7 +9048,7 @@
         <v>4</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H249" s="8" t="s">
         <v>25</v>
@@ -9171,7 +9172,7 @@
         <v>25</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9191,7 +9192,7 @@
         <v>50</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,6 +9230,12 @@
       </c>
       <c r="I257" s="8" t="s">
         <v>813</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F258" s="8">
+        <f>SUM(F2:F257)</f>
+        <v>158012</v>
       </c>
     </row>
   </sheetData>
@@ -9242,8 +9249,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9688,7 +9695,10 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <f>SUM(F2:F21)</f>
+        <v>160427</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
@@ -11963,7 +11973,7 @@
   <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12058,7 +12068,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <f>SUM(F2:F3)</f>
+        <v>26065</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
@@ -17742,7 +17755,7 @@
   <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17847,7 +17860,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <f>SUM(F2:F4)</f>
+        <v>14504</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
@@ -25606,7 +25622,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26645,7 +26661,7 @@
   <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29411,7 +29427,7 @@
   <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29552,7 +29568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C6" s="5">
         <v>15</v>
@@ -29567,7 +29583,7 @@
         <v>2562</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>58</v>
@@ -29579,7 +29595,10 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <f>SUM(F2:F6)</f>
+        <v>149243</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
@@ -32113,8 +32132,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32915,7 +32934,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C33" s="5">
         <v>36</v>
@@ -32941,7 +32960,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
@@ -32956,7 +32975,7 @@
         <v>6399</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>58</v>
@@ -32967,7 +32986,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C35" s="5">
         <v>36</v>
@@ -32982,7 +33001,7 @@
         <v>20508</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>58</v>
@@ -32993,7 +33012,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C36" s="5">
         <v>36</v>
@@ -33008,7 +33027,7 @@
         <v>1759</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>58</v>
@@ -33019,7 +33038,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C37" s="5">
         <v>36</v>
@@ -33045,7 +33064,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C38" s="5">
         <v>36</v>
@@ -33069,7 +33088,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C39" s="5">
         <v>39</v>
@@ -33093,7 +33112,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C40" s="5">
         <v>11</v>
@@ -33108,7 +33127,7 @@
         <v>1315</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>58</v>
@@ -33119,7 +33138,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C41" s="5">
         <v>11</v>
@@ -33134,7 +33153,7 @@
         <v>417</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>898</v>
@@ -33145,7 +33164,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C42" s="5">
         <v>36</v>
@@ -33160,7 +33179,7 @@
         <v>3067</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>58</v>
@@ -33172,7 +33191,10 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5">
+        <f>SUM(F2:F42)</f>
+        <v>259605</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
@@ -35194,10 +35216,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -38935,7 +38957,7 @@
         <v>326</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F170" s="15">
         <v>12902</v>
@@ -38958,7 +38980,7 @@
         <v>317</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F171" s="15">
         <v>1619</v>
@@ -38978,13 +39000,13 @@
         <v>12</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F172" s="15">
         <v>1770</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H172" s="15" t="s">
         <v>25</v>
@@ -39004,7 +39026,7 @@
         <v>4</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F173" s="15">
         <v>999</v>
@@ -39027,7 +39049,7 @@
         <v>3</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F174" s="15">
         <v>4382</v>
@@ -39041,7 +39063,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C175" s="15">
         <v>98</v>
@@ -39056,10 +39078,16 @@
         <v>835</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H175" s="15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="15">
+        <f>SUM(F2:F175)</f>
+        <v>293743</v>
       </c>
     </row>
   </sheetData>
@@ -45126,7 +45154,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -45137,10 +45165,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -47305,7 +47333,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C91" s="28">
         <v>13</v>
@@ -47329,7 +47357,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C92" s="28">
         <v>12</v>
@@ -47344,7 +47372,7 @@
         <v>1033</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H92" s="27" t="s">
         <v>722</v>
@@ -47355,7 +47383,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C93" s="25">
         <v>13</v>
@@ -47370,7 +47398,7 @@
         <v>222</v>
       </c>
       <c r="G93" s="25" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H93" s="27" t="s">
         <v>722</v>
@@ -47381,7 +47409,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C94" s="25">
         <v>15</v>
@@ -47396,7 +47424,7 @@
         <v>1362</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>722</v>
@@ -47422,7 +47450,7 @@
         <v>1362</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H95" s="27" t="s">
         <v>722</v>
@@ -47433,7 +47461,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C96" s="25">
         <v>9</v>
@@ -47449,6 +47477,12 @@
       </c>
       <c r="H96" s="25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97" s="25">
+        <f>SUM(F2:F96)</f>
+        <v>153918</v>
       </c>
     </row>
   </sheetData>
@@ -47460,10 +47494,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -49342,8 +49376,22 @@
       <c r="D96" s="11">
         <v>725</v>
       </c>
+      <c r="E96" s="29">
+        <f>SUM(E69:E95)</f>
+        <v>72446</v>
+      </c>
+      <c r="F96" s="29">
+        <f>SUM(F2:F95)</f>
+        <v>113617</v>
+      </c>
       <c r="H96" s="11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99" s="11">
+        <f>SUM(E96:F96)</f>
+        <v>186063</v>
       </c>
     </row>
   </sheetData>
@@ -49355,10 +49403,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49752,51 +49800,37 @@
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="5">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1024</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C17" s="5">
         <v>15</v>
       </c>
       <c r="D17" s="5">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5">
-        <v>1071</v>
+        <v>1024</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>58</v>
@@ -49804,25 +49838,25 @@
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C18" s="5">
         <v>15</v>
       </c>
       <c r="D18" s="5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="5">
-        <v>1498</v>
+        <v>1071</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>58</v>
@@ -49830,31 +49864,33 @@
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C19" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5">
-        <v>735</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5">
-        <v>1800</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>1498</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>397</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>401</v>
@@ -49863,13 +49899,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="5">
-        <v>2035</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
@@ -49878,49 +49914,47 @@
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C21" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
-        <v>564</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>736</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F21" s="5">
-        <v>487</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>405</v>
-      </c>
+        <v>2035</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C22" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5">
-        <v>737</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>58</v>
@@ -49928,173 +49962,173 @@
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C23" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F23" s="5">
-        <v>5672</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="H23" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C24" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="F24" s="5">
-        <v>437</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>442</v>
-      </c>
+        <v>5672</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C25" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5">
-        <v>121</v>
+        <v>764</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="F25" s="5">
-        <v>1771</v>
-      </c>
-      <c r="G25" s="5"/>
+        <v>437</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="H25" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>578</v>
+        <v>455</v>
       </c>
       <c r="C26" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5">
-        <v>2219</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>579</v>
-      </c>
+        <v>1771</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>578</v>
+      </c>
       <c r="C27" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F27" s="5">
-        <v>6089</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>2219</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H27" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>599</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5">
-        <v>799</v>
+        <v>309</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F28" s="5">
-        <v>913</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>600</v>
-      </c>
+        <v>6089</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="C29" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="5">
-        <v>732</v>
+        <v>799</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="5">
-        <v>741</v>
+        <v>913</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>58</v>
@@ -50102,75 +50136,75 @@
     </row>
     <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C30" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5">
-        <v>226</v>
+        <v>732</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="5">
-        <v>1017</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>741</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>626</v>
+      </c>
       <c r="H30" s="5" t="s">
-        <v>650</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C31" s="5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D31" s="5">
-        <v>572</v>
+        <v>226</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="5">
-        <v>663</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>659</v>
-      </c>
+        <v>1017</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>58</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="C32" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5">
-        <v>29</v>
+        <v>572</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="10">
-        <v>2676</v>
+      <c r="F32" s="5">
+        <v>663</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>58</v>
@@ -50178,7 +50212,7 @@
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>681</v>
@@ -50187,66 +50221,66 @@
         <v>16</v>
       </c>
       <c r="D33" s="5">
-        <v>550</v>
+        <v>29</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5">
-        <v>213</v>
-      </c>
-      <c r="G33" s="5"/>
+      <c r="F33" s="10">
+        <v>2676</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>682</v>
+      </c>
       <c r="H33" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="C34" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="5">
-        <v>225</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="C35" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="5">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>58</v>
@@ -50254,25 +50288,25 @@
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C36" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D36" s="5">
-        <v>3</v>
+        <v>557</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="F36" s="5">
-        <v>1270</v>
+        <v>353</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>58</v>
@@ -50280,25 +50314,25 @@
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C37" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5">
-        <v>3987</v>
+        <v>1270</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>58</v>
@@ -50306,25 +50340,25 @@
     </row>
     <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C38" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>75</v>
+        <v>720</v>
       </c>
       <c r="F38" s="5">
-        <v>1133</v>
+        <v>3987</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>58</v>
@@ -50332,25 +50366,25 @@
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C39" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="F39" s="5">
-        <v>611</v>
+        <v>1133</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>58</v>
@@ -50358,25 +50392,25 @@
     </row>
     <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="C40" s="5">
         <v>11</v>
       </c>
       <c r="D40" s="5">
-        <v>636</v>
+        <v>272</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>295</v>
       </c>
       <c r="F40" s="5">
-        <v>1267</v>
+        <v>611</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>58</v>
@@ -50384,25 +50418,25 @@
     </row>
     <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C41" s="5">
         <v>11</v>
       </c>
       <c r="D41" s="5">
-        <v>268</v>
+        <v>636</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>295</v>
       </c>
       <c r="F41" s="5">
-        <v>1810</v>
+        <v>1267</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>58</v>
@@ -50410,81 +50444,81 @@
     </row>
     <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C42" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D42" s="5">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="F42" s="5">
-        <v>192</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>1810</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>747</v>
+      </c>
       <c r="H42" s="5" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="C43" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>781</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5">
-        <v>1175</v>
+        <v>192</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="C44" s="5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D44" s="5">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>75</v>
+        <v>781</v>
       </c>
       <c r="F44" s="5">
-        <v>2062</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>811</v>
-      </c>
+        <v>1175</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>810</v>
@@ -50493,16 +50527,16 @@
         <v>15</v>
       </c>
       <c r="D45" s="5">
-        <v>626</v>
+        <v>83</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="5">
-        <v>166</v>
+        <v>2062</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>58</v>
@@ -50510,31 +50544,33 @@
     </row>
     <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="C46" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5">
-        <v>8</v>
+        <v>626</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F46" s="5">
-        <v>1857</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>812</v>
+      </c>
       <c r="H46" s="5" t="s">
-        <v>397</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>840</v>
@@ -50543,13 +50579,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="5">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="5">
-        <v>13212</v>
+        <v>1857</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
@@ -50558,22 +50594,22 @@
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>840</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5">
-        <v>397</v>
+        <v>35</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="5">
-        <v>346</v>
+        <v>13212</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
@@ -50582,99 +50618,97 @@
     </row>
     <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="C49" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D49" s="5">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5">
-        <v>2384</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>854</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="C50" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D50" s="5">
-        <v>740</v>
+        <v>157</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F50" s="5">
-        <v>15069</v>
-      </c>
-      <c r="G50" s="5"/>
+        <v>2384</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>854</v>
+      </c>
       <c r="H50" s="5" t="s">
-        <v>397</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>867</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
       <c r="C51" s="5">
         <v>10</v>
       </c>
       <c r="D51" s="5">
-        <v>572</v>
+        <v>740</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="5">
-        <v>637</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>868</v>
-      </c>
+        <v>15069</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C52" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5">
-        <v>275</v>
+        <v>572</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
       <c r="F52" s="5">
-        <v>683</v>
+        <v>637</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>58</v>
@@ -50682,31 +50716,33 @@
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>921</v>
+        <v>876</v>
       </c>
       <c r="C53" s="5">
         <v>11</v>
       </c>
       <c r="D53" s="5">
-        <v>1155</v>
+        <v>275</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>295</v>
+        <v>720</v>
       </c>
       <c r="F53" s="5">
-        <v>2811</v>
-      </c>
-      <c r="G53" s="5"/>
+        <v>683</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="H53" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>921</v>
@@ -50715,118 +50751,116 @@
         <v>11</v>
       </c>
       <c r="D54" s="5">
-        <v>134</v>
+        <v>1155</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>295</v>
       </c>
       <c r="F54" s="5">
-        <v>3562</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>922</v>
-      </c>
+        <v>2811</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="C55" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="F55" s="5">
-        <v>1888</v>
-      </c>
-      <c r="G55" s="5"/>
+        <v>3562</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>922</v>
+      </c>
       <c r="H55" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C56" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="5">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F56" s="5">
-        <v>2699</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>941</v>
-      </c>
+        <v>1888</v>
+      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>942</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C57" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D57" s="5">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>720</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5">
-        <v>7467</v>
+        <v>2699</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>58</v>
+        <v>942</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="C58" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="5">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>720</v>
       </c>
       <c r="F58" s="5">
-        <v>4513</v>
+        <v>7467</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>58</v>
@@ -50834,25 +50868,25 @@
     </row>
     <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C59" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="5">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>295</v>
+        <v>720</v>
       </c>
       <c r="F59" s="5">
-        <v>1267</v>
+        <v>4513</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>743</v>
+        <v>956</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>58</v>
@@ -50860,25 +50894,25 @@
     </row>
     <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C60" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60" s="5">
-        <v>45</v>
+        <v>636</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="F60" s="5">
-        <v>1327</v>
+        <v>1267</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>962</v>
+        <v>743</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>58</v>
@@ -50886,25 +50920,25 @@
     </row>
     <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C61" s="5">
         <v>15</v>
       </c>
       <c r="D61" s="5">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F61" s="5">
-        <v>2068</v>
+        <v>1327</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>58</v>
@@ -50912,37 +50946,53 @@
     </row>
     <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="C62" s="5">
         <v>15</v>
       </c>
       <c r="D62" s="5">
-        <v>740</v>
+        <v>98</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F62" s="5">
+        <v>2068</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C63" s="5">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5">
+        <v>740</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="5">
         <v>661</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -50950,7 +51000,10 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5">
+        <f>SUM(F2:F63)</f>
+        <v>123951</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
@@ -51833,6 +51886,16 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51845,8 +51908,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52656,7 +52719,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C38" s="5">
         <v>10</v>
@@ -52671,7 +52734,7 @@
         <v>856</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>58</v>
@@ -52683,7 +52746,10 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5">
+        <f>SUM(F2:F38)</f>
+        <v>68294</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
@@ -53998,8 +54064,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56027,7 +56093,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>1009</v>
+        <v>958</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -56038,7 +56104,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C84" s="5">
         <v>3</v>
@@ -56062,7 +56128,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C85" s="5">
         <v>5</v>
@@ -56086,7 +56152,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C86" s="5">
         <v>9</v>
@@ -56101,7 +56167,7 @@
         <v>1200</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>58</v>
@@ -56112,7 +56178,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C87" s="5">
         <v>5</v>
@@ -56137,7 +56203,10 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5">
+        <f>SUM(F2:F87)</f>
+        <v>235682</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
@@ -57322,7 +57391,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58645,7 +58714,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C55" s="5">
         <v>36</v>
@@ -58660,7 +58729,7 @@
         <v>416</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>58</v>
@@ -58671,7 +58740,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C56" s="5">
         <v>31</v>
@@ -58686,7 +58755,7 @@
         <v>745</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>58</v>
@@ -58697,7 +58766,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -58721,7 +58790,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C58" s="5">
         <v>25</v>
@@ -58745,7 +58814,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C59" s="5">
         <v>25</v>
@@ -58770,7 +58839,10 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5">
+        <f>SUM(F2:F59)</f>
+        <v>297185</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
@@ -59945,7 +60017,7 @@
   <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60416,7 +60488,10 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <f>SUM(F4:F20)</f>
+        <v>77660</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
